--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_443__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_443__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,7 +6118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-1.754417657852173</c:v>
+                  <c:v>-1.75442361831665</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>97.11250305175781</c:v>
@@ -6130,52 +6130,52 @@
                   <c:v>-4.060739994049072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.85963439941406</c:v>
+                  <c:v>97.85964202880859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.92826461791992</c:v>
+                  <c:v>60.92825317382812</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100.7054061889648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.961928367614746</c:v>
+                  <c:v>-5.961922168731689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9508659243583679</c:v>
+                  <c:v>0.9508571028709412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.57306671142578</c:v>
+                  <c:v>56.57305526733398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.89120483398438</c:v>
+                  <c:v>73.89118957519531</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>94.77792358398438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.39572620391846</c:v>
+                  <c:v>11.39572048187256</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>98.66401672363281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.144800782203674</c:v>
+                  <c:v>-1.144794821739197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.9528914093971252</c:v>
+                  <c:v>-0.9528972506523132</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.494713068008423</c:v>
+                  <c:v>-2.494715929031372</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>98.41716766357422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.91973876953125</c:v>
+                  <c:v>68.91973114013672</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.210267782211304</c:v>
+                  <c:v>-2.210264921188354</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>94.29383850097656</c:v>
@@ -6184,10 +6184,10 @@
                   <c:v>101.1461334228516</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>96.65802764892578</c:v>
+                  <c:v>96.65803527832031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>92.76800537109375</c:v>
+                  <c:v>92.76799774169922</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.048784289509058</c:v>
@@ -6202,22 +6202,22 @@
                   <c:v>69.110595703125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.01993409357964993</c:v>
+                  <c:v>-0.01994291134178638</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.457655429840088</c:v>
+                  <c:v>6.457658290863037</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>74.08271789550781</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.14492130279541</c:v>
+                  <c:v>3.144933223724365</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-2.72169303894043</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4.191221714019775</c:v>
+                  <c:v>-4.191215991973877</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-3.539790391921997</c:v>
@@ -6229,40 +6229,40 @@
                   <c:v>28.17616271972656</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.14560341835022</c:v>
+                  <c:v>-2.145600318908691</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1605780720710754</c:v>
+                  <c:v>0.1605810075998306</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>100.5537490844727</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.98160171508789</c:v>
+                  <c:v>60.98159027099609</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>88.81679534912109</c:v>
+                  <c:v>88.81680297851562</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-2.687574863433838</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56.5953369140625</c:v>
+                  <c:v>56.5953483581543</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.3373450636863708</c:v>
+                  <c:v>-0.3373421132564545</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.780204772949219</c:v>
+                  <c:v>-1.780198812484741</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.654529809951782</c:v>
+                  <c:v>3.654526948928833</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.94066619873047</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.4040321111679077</c:v>
+                  <c:v>0.404023289680481</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>98.49297332763672</c:v>
@@ -6271,25 +6271,25 @@
                   <c:v>5.902544975280762</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>122.3066253662109</c:v>
+                  <c:v>122.3065872192383</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>99.27052307128906</c:v>
+                  <c:v>99.27053833007812</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.24971008300781</c:v>
+                  <c:v>19.24968719482422</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25.65185546875</c:v>
+                  <c:v>25.65184020996094</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>67.73546600341797</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>85.05154418945312</c:v>
+                  <c:v>85.05155944824219</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.201748609542847</c:v>
+                  <c:v>-3.201742887496948</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>23.84411430358887</c:v>
@@ -6301,25 +6301,25 @@
                   <c:v>0.349824070930481</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.22287917137146</c:v>
+                  <c:v>-2.222882032394409</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>99.58343505859375</c:v>
+                  <c:v>99.58345031738281</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.984119892120361</c:v>
+                  <c:v>2.984125852584839</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>95.14019775390625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.3190924823284149</c:v>
+                  <c:v>-0.3190983533859253</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.013087511062622</c:v>
+                  <c:v>-2.013084650039673</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5179924368858337</c:v>
+                  <c:v>0.5179983377456665</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>72.30126190185547</c:v>
@@ -6331,13 +6331,13 @@
                   <c:v>100.5352172851562</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.86172485351562</c:v>
+                  <c:v>96.86170959472656</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>98.34636688232422</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.471801042556763</c:v>
+                  <c:v>3.471812963485718</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>99.23196411132812</c:v>
@@ -6352,7 +6352,7 @@
                   <c:v>98.07864379882812</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>90.40189361572266</c:v>
+                  <c:v>90.40190124511719</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>100.9159698486328</c:v>
@@ -6361,64 +6361,64 @@
                   <c:v>60.11052322387695</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.7198526859283447</c:v>
+                  <c:v>0.7198585867881775</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-4.687051773071289</c:v>
+                  <c:v>-4.687057495117188</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>77.32421112060547</c:v>
+                  <c:v>77.32419586181641</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>97.92961120605469</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>97.14559173583984</c:v>
+                  <c:v>97.14558410644531</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-0.6530715823173523</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.182511210441589</c:v>
+                  <c:v>-1.182505369186401</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-0.07587948441505432</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94.02972412109375</c:v>
+                  <c:v>94.02971649169922</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>98.29301452636719</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.18591833114624</c:v>
+                  <c:v>-1.185921192169189</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>40.47930145263672</c:v>
+                  <c:v>40.47930908203125</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>98.04570770263672</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>56.70100402832031</c:v>
+                  <c:v>56.70099258422852</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-3.456808567047119</c:v>
+                  <c:v>-3.456782102584839</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89.19118499755859</c:v>
+                  <c:v>89.19119262695312</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>99.58999633789062</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.8385988473892212</c:v>
+                  <c:v>-0.838604748249054</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>95.34962463378906</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.049375295639038</c:v>
+                  <c:v>-2.049372434616089</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>3.576407432556152</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.754417657852173</v>
+        <v>-1.75442361831665</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>97.85963439941406</v>
+        <v>97.85964202880859</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>60.92826461791992</v>
+        <v>60.92825317382812</v>
       </c>
       <c r="G7">
         <v>123</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-5.961928367614746</v>
+        <v>-5.961922168731689</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>0.9508659243583679</v>
+        <v>0.9508571028709412</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>56.57306671142578</v>
+        <v>56.57305526733398</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>73.89120483398438</v>
+        <v>73.89118957519531</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.39572620391846</v>
+        <v>11.39572048187256</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>-1.144800782203674</v>
+        <v>-1.144794821739197</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>-0.9528914093971252</v>
+        <v>-0.9528972506523132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-2.494713068008423</v>
+        <v>-2.494715929031372</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>68.91973876953125</v>
+        <v>68.91973114013672</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-2.210267782211304</v>
+        <v>-2.210264921188354</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>96.65802764892578</v>
+        <v>96.65803527832031</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>92.76800537109375</v>
+        <v>92.76799774169922</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.01993409357964993</v>
+        <v>-0.01994291134178638</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>6.457655429840088</v>
+        <v>6.457658290863037</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3.14492130279541</v>
+        <v>3.144933223724365</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-4.191221714019775</v>
+        <v>-4.191215991973877</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-2.14560341835022</v>
+        <v>-2.145600318908691</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.1605780720710754</v>
+        <v>0.1605810075998306</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>60.98160171508789</v>
+        <v>60.98159027099609</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>88.81679534912109</v>
+        <v>88.81680297851562</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>56.5953369140625</v>
+        <v>56.5953483581543</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.3373450636863708</v>
+        <v>-0.3373421132564545</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.780204772949219</v>
+        <v>-1.780198812484741</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>3.654529809951782</v>
+        <v>3.654526948928833</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.4040321111679077</v>
+        <v>0.404023289680481</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>122.3066253662109</v>
+        <v>122.3065872192383</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>99.27052307128906</v>
+        <v>99.27053833007812</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>19.24971008300781</v>
+        <v>19.24968719482422</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>25.65185546875</v>
+        <v>25.65184020996094</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>85.05154418945312</v>
+        <v>85.05155944824219</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-3.201748609542847</v>
+        <v>-3.201742887496948</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-2.22287917137146</v>
+        <v>-2.222882032394409</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>97.37220000000001</v>
       </c>
       <c r="F64">
-        <v>99.58343505859375</v>
+        <v>99.58345031738281</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>2.984119892120361</v>
+        <v>2.984125852584839</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.3190924823284149</v>
+        <v>-0.3190983533859253</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-2.013087511062622</v>
+        <v>-2.013084650039673</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.5179924368858337</v>
+        <v>0.5179983377456665</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>96.86172485351562</v>
+        <v>96.86170959472656</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>3.471801042556763</v>
+        <v>3.471812963485718</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>90.40189361572266</v>
+        <v>90.40190124511719</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.7198526859283447</v>
+        <v>0.7198585867881775</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-4.687051773071289</v>
+        <v>-4.687057495117188</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>77.32421112060547</v>
+        <v>77.32419586181641</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>91.53700000000001</v>
       </c>
       <c r="F87">
-        <v>97.14559173583984</v>
+        <v>97.14558410644531</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-1.182511210441589</v>
+        <v>-1.182505369186401</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>94.02972412109375</v>
+        <v>94.02971649169922</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-1.18591833114624</v>
+        <v>-1.185921192169189</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>40.47930145263672</v>
+        <v>40.47930908203125</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>56.70100402832031</v>
+        <v>56.70099258422852</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-3.456808567047119</v>
+        <v>-3.456782102584839</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>89.19118499755859</v>
+        <v>89.19119262695312</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-0.8385988473892212</v>
+        <v>-0.838604748249054</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-2.049375295639038</v>
+        <v>-2.049372434616089</v>
       </c>
     </row>
     <row r="103" spans="1:6">
